--- a/all.xlsx
+++ b/all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>ID клиента</t>
   </si>
@@ -55,15 +55,18 @@
     <t xml:space="preserve">Бартер </t>
   </si>
   <si>
+    <t>Краткая информация о канале/аккаунте:</t>
+  </si>
+  <si>
+    <t>num_edit</t>
+  </si>
+  <si>
+    <t>закончена(1/0)</t>
+  </si>
+  <si>
     <t>type_</t>
   </si>
   <si>
-    <t>num_edit</t>
-  </si>
-  <si>
-    <t>закончена(1/0)</t>
-  </si>
-  <si>
     <t>ID анкеты</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>Закончена(1/0)</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -431,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +456,7 @@
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="24" max="24" width="24.140625" customWidth="1"/>
@@ -486,7 +496,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -495,11 +505,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z1">
         <v>2</v>
@@ -507,7 +520,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -515,12 +528,12 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +559,7 @@
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,19 +586,32 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">

--- a/all.xlsx
+++ b/all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ID клиента</t>
   </si>
@@ -73,9 +73,6 @@
     <t>БАН(ниже)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -86,12 +83,6 @@
   </si>
   <si>
     <t>Закончена(1/0)</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -440,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +511,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -528,12 +519,12 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X8" t="s">
-        <v>17</v>
+      <c r="X8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -546,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -595,23 +586,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Z1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">
